--- a/ManualTask/bugReport.xlsx
+++ b/ManualTask/bugReport.xlsx
@@ -4,20 +4,151 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Related TC number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severity </t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Validating Registaration 
+with inValid First Name</t>
+  </si>
+  <si>
+    <t>*Open URL
+*Fill The First Name,
+LastName, Phone, Email, Password And Confirm Password</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>* First Name = "nehal"
+*LastName = "Srour"
+* Phone = "01028374659"
+* Email = "noor2@gmail.com"
+*Password = "Noor%66"
+* Confirm Password "Noor%66"</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*windows 
+</t>
+  </si>
+  <si>
+    <t>Error In the Registration,
+*Error Message "Invalid First name" is displayed</t>
+  </si>
+  <si>
+    <t>The Registration is done successfully
+*The Home Page is displayed</t>
+  </si>
+  <si>
+    <t>Validating Registaration 
+with inValid Last Name</t>
+  </si>
+  <si>
+    <t>* First Name = "Nehal"
+*LastName = "srour"
+* Phone = "01028374659"
+* Email = "noor3@gmail.com"
+*Password = "Noor%66"
+* Confirm Password "Noor%66"</t>
+  </si>
+  <si>
+    <t>Error In the Registration,
+*Error Message "Invalid Last name" is displayed</t>
+  </si>
+  <si>
+    <t>Validating Registaration 
+with Last Name equals First Name</t>
+  </si>
+  <si>
+    <t>* First Name = "Nehal"
+*LastName = "Nehal"
+* Phone = "01028374659"
+* Email = "noor4@gmail.com"
+*Password = "Noor%66"
+* Confirm Password "Noor%66"</t>
+  </si>
+  <si>
+    <t>Error In the Registration,
+*Error Message "Invalid Last name " is displayed</t>
+  </si>
+  <si>
+    <t>Validating Registaration 
+with invalid email</t>
+  </si>
+  <si>
+    <t>* First Name = "Nehal"
+*LastName = "Srour"
+* Phone = "01028374659"
+* Email = "noorgmail.com"
+*Password = "Noor%66"
+* Confirm Password "Noor%66"</t>
+  </si>
+  <si>
+    <t>Error In the Registration,
+*Error Message "Invalid Email" is displayed</t>
+  </si>
+  <si>
+    <t>Validating Registaration 
+with allready registered email</t>
+  </si>
+  <si>
+    <t>* First Name = "Nehal"
+*LastName = "Srour"
+* Phone = "01028374659"
+* Email = "noor6@gmail.com"
+*Password = "Noor%66"
+* Confirm Password "Noor%66"</t>
+  </si>
+  <si>
+    <t>Error In the Registration,
+*Error Message "This email is allready registered" is displayed</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,13 +156,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +196,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,13 +504,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="43.21875" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" customWidth="1"/>
+    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1"/>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="125.4" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="131.4" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="131.4" customHeight="1">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" ht="131.4" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" ht="131.4" customHeight="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1"/>
+    <row r="9" spans="1:11" s="2" customFormat="1"/>
+    <row r="10" spans="1:11" s="2" customFormat="1"/>
+    <row r="11" spans="1:11" s="2" customFormat="1"/>
+    <row r="12" spans="1:11" s="2" customFormat="1"/>
+    <row r="13" spans="1:11" s="2" customFormat="1"/>
+    <row r="14" spans="1:11" s="2" customFormat="1"/>
+    <row r="15" spans="1:11" s="2" customFormat="1"/>
+    <row r="16" spans="1:11" s="2" customFormat="1"/>
+    <row r="17" s="2" customFormat="1"/>
+    <row r="18" s="2" customFormat="1"/>
+    <row r="19" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="21" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="23" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="25" s="2" customFormat="1"/>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="27" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
+    <row r="29" s="2" customFormat="1"/>
+    <row r="30" s="2" customFormat="1"/>
+    <row r="31" s="2" customFormat="1"/>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="37" s="2" customFormat="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -358,7 +732,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -370,7 +744,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ManualTask/bugReport.xlsx
+++ b/ManualTask/bugReport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -113,35 +113,25 @@
   </si>
   <si>
     <t>Validating Registaration 
-with invalid email</t>
+validation mail</t>
+  </si>
+  <si>
+    <t>Error In the Registration,
+*Error Message "Invalid Email" is displayed
+* a validation mail is sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Registration is done successfully
+*The Home Page is displayed
+* No Validation mail </t>
   </si>
   <si>
     <t>* First Name = "Nehal"
 *LastName = "Srour"
 * Phone = "01028374659"
-* Email = "noorgmail.com"
+* Email = "noor@gmail.com"
 *Password = "Noor%66"
 * Confirm Password "Noor%66"</t>
-  </si>
-  <si>
-    <t>Error In the Registration,
-*Error Message "Invalid Email" is displayed</t>
-  </si>
-  <si>
-    <t>Validating Registaration 
-with allready registered email</t>
-  </si>
-  <si>
-    <t>* First Name = "Nehal"
-*LastName = "Srour"
-* Phone = "01028374659"
-* Email = "noor6@gmail.com"
-*Password = "Noor%66"
-* Confirm Password "Noor%66"</t>
-  </si>
-  <si>
-    <t>Error In the Registration,
-*Error Message "This email is allready registered" is displayed</t>
   </si>
 </sst>
 </file>
@@ -506,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -649,7 +639,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
@@ -658,37 +648,19 @@
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="131.4" customHeight="1">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1"/>
     <row r="9" spans="1:11" s="2" customFormat="1"/>
